--- a/Trades_H1.xlsx
+++ b/Trades_H1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEB81E4-BB27-4991-94DC-494DE1C68772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC91C06-CAAC-4835-9162-0CA516893622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,8 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -116,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -125,6 +126,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +432,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +471,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>45782</v>
       </c>
       <c r="C2" s="2">
@@ -495,7 +497,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>45782</v>
       </c>
       <c r="C3" s="2">
@@ -521,7 +523,7 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>45782</v>
       </c>
       <c r="C4" s="2">
@@ -547,7 +549,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>45782</v>
       </c>
       <c r="C5" s="2">
@@ -573,7 +575,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>45783</v>
       </c>
       <c r="C6" s="2">
@@ -599,7 +601,7 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>45784</v>
       </c>
       <c r="C7" s="2">
@@ -625,7 +627,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>45784</v>
       </c>
       <c r="C8" s="2">
@@ -651,7 +653,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>45784</v>
       </c>
       <c r="C9" s="2">
@@ -677,7 +679,7 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>45784</v>
       </c>
       <c r="C10" s="2">
@@ -703,7 +705,7 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>45784</v>
       </c>
       <c r="C11" s="2">
@@ -729,7 +731,7 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>45784</v>
       </c>
       <c r="C12" s="2">
@@ -755,7 +757,7 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>45784</v>
       </c>
       <c r="C13" s="2">
@@ -781,7 +783,7 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>45786</v>
       </c>
       <c r="C14" s="2">
@@ -807,7 +809,7 @@
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>45792</v>
       </c>
       <c r="C15" s="2">
@@ -833,7 +835,7 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>45792</v>
       </c>
       <c r="C16" s="2">
@@ -859,7 +861,7 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>45796</v>
       </c>
       <c r="C17" s="2">
@@ -885,7 +887,7 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>45796</v>
       </c>
       <c r="C18" s="2">
@@ -911,7 +913,7 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>45798</v>
       </c>
       <c r="C19" s="2">
@@ -937,7 +939,7 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>45798</v>
       </c>
       <c r="C20" s="2">
@@ -963,7 +965,7 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>45799</v>
       </c>
       <c r="C21" s="2">
@@ -989,7 +991,7 @@
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>45799</v>
       </c>
       <c r="C22" s="2">
@@ -1015,7 +1017,7 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>45800</v>
       </c>
       <c r="C23" s="2">
@@ -1041,7 +1043,7 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>45800</v>
       </c>
       <c r="C24" s="2">
@@ -1067,7 +1069,7 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>45804</v>
       </c>
       <c r="C25" s="2">
@@ -1093,7 +1095,7 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>45806</v>
       </c>
       <c r="C26" s="2">
@@ -1119,7 +1121,7 @@
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>45806</v>
       </c>
       <c r="C27" s="2">
@@ -1145,7 +1147,7 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>45806</v>
       </c>
       <c r="C28" s="2">
@@ -1171,7 +1173,7 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>45807</v>
       </c>
       <c r="C29" s="2">
@@ -1197,7 +1199,7 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>45807</v>
       </c>
       <c r="C30" s="2">
@@ -1223,7 +1225,7 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>45807</v>
       </c>
       <c r="C31" s="2">
@@ -1249,7 +1251,7 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>45807</v>
       </c>
       <c r="C32" s="2">
@@ -1275,7 +1277,7 @@
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>45807</v>
       </c>
       <c r="C33" s="2">
@@ -1301,7 +1303,7 @@
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>45813</v>
       </c>
       <c r="C34" s="2">
@@ -1327,7 +1329,7 @@
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>45820</v>
       </c>
       <c r="C35" s="2">
@@ -1353,7 +1355,7 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>45820</v>
       </c>
       <c r="C36" s="2">
@@ -1379,7 +1381,7 @@
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>45820</v>
       </c>
       <c r="C37" s="2">
@@ -1405,7 +1407,7 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>45820</v>
       </c>
       <c r="C38" s="2">
@@ -1431,7 +1433,7 @@
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>45820</v>
       </c>
       <c r="C39" s="2">
@@ -1457,7 +1459,7 @@
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>45821</v>
       </c>
       <c r="C40" s="2">
@@ -1483,7 +1485,7 @@
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>45821</v>
       </c>
       <c r="C41" s="2">
@@ -1509,7 +1511,7 @@
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>45826</v>
       </c>
       <c r="C42" s="2">
@@ -1535,7 +1537,7 @@
       <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>45826</v>
       </c>
       <c r="C43" s="2">
@@ -1561,7 +1563,7 @@
       <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4">
         <v>45826</v>
       </c>
       <c r="C44" s="2">
@@ -1587,7 +1589,7 @@
       <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>45826</v>
       </c>
       <c r="C45" s="2">
@@ -1613,7 +1615,7 @@
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4">
         <v>45828</v>
       </c>
       <c r="C46" s="2">
@@ -1639,7 +1641,7 @@
       <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4">
         <v>45831</v>
       </c>
       <c r="C47" s="2">
@@ -1665,7 +1667,7 @@
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4">
         <v>45831</v>
       </c>
       <c r="C48" s="2">
@@ -1691,7 +1693,7 @@
       <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="4">
         <v>45838</v>
       </c>
       <c r="C49" s="2">

--- a/Trades_H1.xlsx
+++ b/Trades_H1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC91C06-CAAC-4835-9162-0CA516893622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1B6DD-54E8-4261-8D45-EA954B009646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>operation</t>
   </si>
@@ -47,17 +47,73 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>2025-05-21</t>
+  </si>
+  <si>
+    <t>2025-05-22</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-06-13</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>2025-05-23</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +125,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -126,7 +188,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +493,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,8 +532,8 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
-        <v>45782</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>45782.458333333343</v>
@@ -497,8 +558,8 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
-        <v>45782</v>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>45782.5</v>
@@ -523,8 +584,8 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>45782</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>45782.541666666657</v>
@@ -549,8 +610,8 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
-        <v>45782</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>45782.583333333343</v>
@@ -575,8 +636,8 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>45783</v>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>45783.583333333343</v>
@@ -601,8 +662,8 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>45784</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>45784.354166666657</v>
@@ -627,8 +688,8 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>45784</v>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>45784.375</v>
@@ -653,8 +714,8 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
-        <v>45784</v>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>45784.416666666657</v>
@@ -679,8 +740,8 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
-        <v>45784</v>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>45784.458333333343</v>
@@ -705,8 +766,8 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
-        <v>45784</v>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>45784.5</v>
@@ -731,8 +792,8 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4">
-        <v>45784</v>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="2">
         <v>45784.541666666657</v>
@@ -757,8 +818,8 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4">
-        <v>45784</v>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>45784.583333333343</v>
@@ -783,8 +844,8 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4">
-        <v>45786</v>
+      <c r="B14" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>45786.583333333343</v>
@@ -809,8 +870,8 @@
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4">
-        <v>45792</v>
+      <c r="B15" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="2">
         <v>45792.354166666657</v>
@@ -835,8 +896,8 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="4">
-        <v>45792</v>
+      <c r="B16" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>45792.416666666657</v>
@@ -861,8 +922,8 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="4">
-        <v>45796</v>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <v>45796.416666666657</v>
@@ -887,8 +948,8 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="4">
-        <v>45796</v>
+      <c r="B18" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <v>45796.458333333343</v>
@@ -913,8 +974,8 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4">
-        <v>45798</v>
+      <c r="B19" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>45798.458333333343</v>
@@ -939,8 +1000,8 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="4">
-        <v>45798</v>
+      <c r="B20" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <v>45798.5</v>
@@ -965,8 +1026,8 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4">
-        <v>45799</v>
+      <c r="B21" t="s">
+        <v>16</v>
       </c>
       <c r="C21" s="2">
         <v>45799.541666666657</v>
@@ -991,8 +1052,8 @@
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="4">
-        <v>45799</v>
+      <c r="B22" t="s">
+        <v>16</v>
       </c>
       <c r="C22" s="2">
         <v>45799.583333333343</v>
@@ -1017,8 +1078,8 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4">
-        <v>45800</v>
+      <c r="B23" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>45800.541666666657</v>
@@ -1043,8 +1104,8 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="4">
-        <v>45800</v>
+      <c r="B24" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="2">
         <v>45800.583333333343</v>
@@ -1069,8 +1130,8 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="4">
-        <v>45804</v>
+      <c r="B25" t="s">
+        <v>25</v>
       </c>
       <c r="C25" s="2">
         <v>45804.354166666657</v>
@@ -1095,8 +1156,8 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="4">
-        <v>45806</v>
+      <c r="B26" t="s">
+        <v>26</v>
       </c>
       <c r="C26" s="2">
         <v>45806.5</v>
@@ -1121,8 +1182,8 @@
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="4">
-        <v>45806</v>
+      <c r="B27" t="s">
+        <v>26</v>
       </c>
       <c r="C27" s="2">
         <v>45806.541666666657</v>
@@ -1147,8 +1208,8 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="4">
-        <v>45806</v>
+      <c r="B28" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="2">
         <v>45806.583333333343</v>
@@ -1173,8 +1234,8 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="4">
-        <v>45807</v>
+      <c r="B29" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="2">
         <v>45807.354166666657</v>
@@ -1199,8 +1260,8 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="4">
-        <v>45807</v>
+      <c r="B30" t="s">
+        <v>27</v>
       </c>
       <c r="C30" s="2">
         <v>45807.416666666657</v>
@@ -1225,8 +1286,8 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="4">
-        <v>45807</v>
+      <c r="B31" t="s">
+        <v>27</v>
       </c>
       <c r="C31" s="2">
         <v>45807.458333333343</v>
@@ -1251,8 +1312,8 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="4">
-        <v>45807</v>
+      <c r="B32" t="s">
+        <v>27</v>
       </c>
       <c r="C32" s="2">
         <v>45807.541666666657</v>
@@ -1277,8 +1338,8 @@
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="4">
-        <v>45807</v>
+      <c r="B33" t="s">
+        <v>27</v>
       </c>
       <c r="C33" s="2">
         <v>45807.583333333343</v>
@@ -1303,8 +1364,8 @@
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="4">
-        <v>45813</v>
+      <c r="B34" t="s">
+        <v>23</v>
       </c>
       <c r="C34" s="2">
         <v>45813.416666666657</v>
@@ -1329,8 +1390,8 @@
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="4">
-        <v>45820</v>
+      <c r="B35" t="s">
+        <v>22</v>
       </c>
       <c r="C35" s="2">
         <v>45820.354166666657</v>
@@ -1355,8 +1416,8 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="4">
-        <v>45820</v>
+      <c r="B36" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="2">
         <v>45820.416666666657</v>
@@ -1381,8 +1442,8 @@
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="4">
-        <v>45820</v>
+      <c r="B37" t="s">
+        <v>22</v>
       </c>
       <c r="C37" s="2">
         <v>45820.5</v>
@@ -1407,8 +1468,8 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="4">
-        <v>45820</v>
+      <c r="B38" t="s">
+        <v>22</v>
       </c>
       <c r="C38" s="2">
         <v>45820.541666666657</v>
@@ -1433,8 +1494,8 @@
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="4">
-        <v>45820</v>
+      <c r="B39" t="s">
+        <v>22</v>
       </c>
       <c r="C39" s="2">
         <v>45820.583333333343</v>
@@ -1459,8 +1520,8 @@
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="4">
-        <v>45821</v>
+      <c r="B40" t="s">
+        <v>21</v>
       </c>
       <c r="C40" s="2">
         <v>45821.458333333343</v>
@@ -1485,8 +1546,8 @@
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="4">
-        <v>45821</v>
+      <c r="B41" t="s">
+        <v>21</v>
       </c>
       <c r="C41" s="2">
         <v>45821.5</v>
@@ -1511,8 +1572,8 @@
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="4">
-        <v>45826</v>
+      <c r="B42" t="s">
+        <v>20</v>
       </c>
       <c r="C42" s="2">
         <v>45826.375</v>
@@ -1537,8 +1598,8 @@
       <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="4">
-        <v>45826</v>
+      <c r="B43" t="s">
+        <v>20</v>
       </c>
       <c r="C43" s="2">
         <v>45826.416666666657</v>
@@ -1563,8 +1624,8 @@
       <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="4">
-        <v>45826</v>
+      <c r="B44" t="s">
+        <v>20</v>
       </c>
       <c r="C44" s="2">
         <v>45826.458333333343</v>
@@ -1589,8 +1650,8 @@
       <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="4">
-        <v>45826</v>
+      <c r="B45" t="s">
+        <v>20</v>
       </c>
       <c r="C45" s="2">
         <v>45826.541666666657</v>
@@ -1615,8 +1676,8 @@
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="4">
-        <v>45828</v>
+      <c r="B46" t="s">
+        <v>19</v>
       </c>
       <c r="C46" s="2">
         <v>45828.354166666657</v>
@@ -1641,8 +1702,8 @@
       <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="4">
-        <v>45831</v>
+      <c r="B47" t="s">
+        <v>18</v>
       </c>
       <c r="C47" s="2">
         <v>45831.354166666657</v>
@@ -1667,8 +1728,8 @@
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="4">
-        <v>45831</v>
+      <c r="B48" t="s">
+        <v>18</v>
       </c>
       <c r="C48" s="2">
         <v>45831.375</v>
@@ -1693,8 +1754,8 @@
       <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="4">
-        <v>45838</v>
+      <c r="B49" t="s">
+        <v>17</v>
       </c>
       <c r="C49" s="2">
         <v>45838.354166666657</v>
@@ -1716,6 +1777,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Trades_H1.xlsx
+++ b/Trades_H1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1B6DD-54E8-4261-8D45-EA954B009646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E34FE91-C280-40E4-B2CC-01A9883A9CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
   <si>
     <t>operation</t>
   </si>
@@ -47,63 +47,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
-  </si>
-  <si>
-    <t>2025-05-07</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>2025-05-21</t>
-  </si>
-  <si>
-    <t>2025-05-22</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>2025-06-20</t>
-  </si>
-  <si>
-    <t>2025-06-18</t>
-  </si>
-  <si>
-    <t>2025-06-13</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>2025-05-23</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
   </si>
 </sst>
 </file>
@@ -493,7 +436,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,8 +475,8 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2" s="2">
+        <v>45782.458333333343</v>
       </c>
       <c r="C2" s="2">
         <v>45782.458333333343</v>
@@ -558,8 +501,8 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3" s="2">
+        <v>45782.5</v>
       </c>
       <c r="C3" s="2">
         <v>45782.5</v>
@@ -584,8 +527,8 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4" s="2">
+        <v>45782.541666666657</v>
       </c>
       <c r="C4" s="2">
         <v>45782.541666666657</v>
@@ -610,8 +553,8 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5" s="2">
+        <v>45782.583333333343</v>
       </c>
       <c r="C5" s="2">
         <v>45782.583333333343</v>
@@ -636,8 +579,8 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="B6" s="2">
+        <v>45783.583333333343</v>
       </c>
       <c r="C6" s="2">
         <v>45783.583333333343</v>
@@ -662,8 +605,8 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B7" s="2">
+        <v>45784.354166666657</v>
       </c>
       <c r="C7" s="2">
         <v>45784.354166666657</v>
@@ -688,8 +631,8 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
+      <c r="B8" s="2">
+        <v>45784.375</v>
       </c>
       <c r="C8" s="2">
         <v>45784.375</v>
@@ -714,8 +657,8 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9" s="2">
+        <v>45784.416666666657</v>
       </c>
       <c r="C9" s="2">
         <v>45784.416666666657</v>
@@ -740,8 +683,8 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
+      <c r="B10" s="2">
+        <v>45784.458333333343</v>
       </c>
       <c r="C10" s="2">
         <v>45784.458333333343</v>
@@ -766,8 +709,8 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B11" s="2">
+        <v>45784.5</v>
       </c>
       <c r="C11" s="2">
         <v>45784.5</v>
@@ -792,8 +735,8 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
+      <c r="B12" s="2">
+        <v>45784.541666666657</v>
       </c>
       <c r="C12" s="2">
         <v>45784.541666666657</v>
@@ -818,8 +761,8 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
+      <c r="B13" s="2">
+        <v>45784.583333333343</v>
       </c>
       <c r="C13" s="2">
         <v>45784.583333333343</v>
@@ -844,8 +787,8 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
+      <c r="B14" s="2">
+        <v>45786.583333333343</v>
       </c>
       <c r="C14" s="2">
         <v>45786.583333333343</v>
@@ -870,8 +813,8 @@
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
+      <c r="B15" s="2">
+        <v>45792.354166666657</v>
       </c>
       <c r="C15" s="2">
         <v>45792.354166666657</v>
@@ -896,8 +839,8 @@
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
+      <c r="B16" s="2">
+        <v>45792.416666666657</v>
       </c>
       <c r="C16" s="2">
         <v>45792.416666666657</v>
@@ -922,8 +865,8 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
+      <c r="B17" s="2">
+        <v>45796.416666666657</v>
       </c>
       <c r="C17" s="2">
         <v>45796.416666666657</v>
@@ -948,8 +891,8 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
+      <c r="B18" s="2">
+        <v>45796.458333333343</v>
       </c>
       <c r="C18" s="2">
         <v>45796.458333333343</v>
@@ -974,8 +917,8 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
+      <c r="B19" s="2">
+        <v>45798.458333333343</v>
       </c>
       <c r="C19" s="2">
         <v>45798.458333333343</v>
@@ -1000,8 +943,8 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
+      <c r="B20" s="2">
+        <v>45798.5</v>
       </c>
       <c r="C20" s="2">
         <v>45798.5</v>
@@ -1026,8 +969,8 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
-        <v>16</v>
+      <c r="B21" s="2">
+        <v>45799.541666666657</v>
       </c>
       <c r="C21" s="2">
         <v>45799.541666666657</v>
@@ -1052,8 +995,8 @@
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
-        <v>16</v>
+      <c r="B22" s="2">
+        <v>45799.583333333343</v>
       </c>
       <c r="C22" s="2">
         <v>45799.583333333343</v>
@@ -1078,8 +1021,8 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
+      <c r="B23" s="2">
+        <v>45800.541666666657</v>
       </c>
       <c r="C23" s="2">
         <v>45800.541666666657</v>
@@ -1104,8 +1047,8 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
+      <c r="B24" s="2">
+        <v>45800.583333333343</v>
       </c>
       <c r="C24" s="2">
         <v>45800.583333333343</v>
@@ -1130,8 +1073,8 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
+      <c r="B25" s="2">
+        <v>45804.354166666657</v>
       </c>
       <c r="C25" s="2">
         <v>45804.354166666657</v>
@@ -1156,8 +1099,8 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
+      <c r="B26" s="2">
+        <v>45806.5</v>
       </c>
       <c r="C26" s="2">
         <v>45806.5</v>
@@ -1182,8 +1125,8 @@
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
-        <v>26</v>
+      <c r="B27" s="2">
+        <v>45806.541666666657</v>
       </c>
       <c r="C27" s="2">
         <v>45806.541666666657</v>
@@ -1208,8 +1151,8 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
-        <v>26</v>
+      <c r="B28" s="2">
+        <v>45806.583333333343</v>
       </c>
       <c r="C28" s="2">
         <v>45806.583333333343</v>
@@ -1234,8 +1177,8 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
+      <c r="B29" s="2">
+        <v>45807.354166666657</v>
       </c>
       <c r="C29" s="2">
         <v>45807.354166666657</v>
@@ -1260,8 +1203,8 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
-        <v>27</v>
+      <c r="B30" s="2">
+        <v>45807.416666666657</v>
       </c>
       <c r="C30" s="2">
         <v>45807.416666666657</v>
@@ -1286,8 +1229,8 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
-        <v>27</v>
+      <c r="B31" s="2">
+        <v>45807.458333333343</v>
       </c>
       <c r="C31" s="2">
         <v>45807.458333333343</v>
@@ -1312,8 +1255,8 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" t="s">
-        <v>27</v>
+      <c r="B32" s="2">
+        <v>45807.541666666657</v>
       </c>
       <c r="C32" s="2">
         <v>45807.541666666657</v>
@@ -1338,8 +1281,8 @@
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="s">
-        <v>27</v>
+      <c r="B33" s="2">
+        <v>45807.583333333343</v>
       </c>
       <c r="C33" s="2">
         <v>45807.583333333343</v>
@@ -1364,8 +1307,8 @@
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" t="s">
-        <v>23</v>
+      <c r="B34" s="2">
+        <v>45813.416666666657</v>
       </c>
       <c r="C34" s="2">
         <v>45813.416666666657</v>
@@ -1390,8 +1333,8 @@
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
-        <v>22</v>
+      <c r="B35" s="2">
+        <v>45820.354166666657</v>
       </c>
       <c r="C35" s="2">
         <v>45820.354166666657</v>
@@ -1416,8 +1359,8 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" t="s">
-        <v>22</v>
+      <c r="B36" s="2">
+        <v>45820.416666666657</v>
       </c>
       <c r="C36" s="2">
         <v>45820.416666666657</v>
@@ -1442,8 +1385,8 @@
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" t="s">
-        <v>22</v>
+      <c r="B37" s="2">
+        <v>45820.5</v>
       </c>
       <c r="C37" s="2">
         <v>45820.5</v>
@@ -1468,8 +1411,8 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" t="s">
-        <v>22</v>
+      <c r="B38" s="2">
+        <v>45820.541666666657</v>
       </c>
       <c r="C38" s="2">
         <v>45820.541666666657</v>
@@ -1494,8 +1437,8 @@
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
+      <c r="B39" s="2">
+        <v>45820.583333333343</v>
       </c>
       <c r="C39" s="2">
         <v>45820.583333333343</v>
@@ -1520,8 +1463,8 @@
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40" t="s">
-        <v>21</v>
+      <c r="B40" s="2">
+        <v>45821.458333333343</v>
       </c>
       <c r="C40" s="2">
         <v>45821.458333333343</v>
@@ -1546,8 +1489,8 @@
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B41" t="s">
-        <v>21</v>
+      <c r="B41" s="2">
+        <v>45821.5</v>
       </c>
       <c r="C41" s="2">
         <v>45821.5</v>
@@ -1572,8 +1515,8 @@
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B42" t="s">
-        <v>20</v>
+      <c r="B42" s="2">
+        <v>45826.375</v>
       </c>
       <c r="C42" s="2">
         <v>45826.375</v>
@@ -1598,8 +1541,8 @@
       <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B43" t="s">
-        <v>20</v>
+      <c r="B43" s="2">
+        <v>45826.416666666657</v>
       </c>
       <c r="C43" s="2">
         <v>45826.416666666657</v>
@@ -1624,8 +1567,8 @@
       <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" t="s">
-        <v>20</v>
+      <c r="B44" s="2">
+        <v>45826.458333333343</v>
       </c>
       <c r="C44" s="2">
         <v>45826.458333333343</v>
@@ -1650,8 +1593,8 @@
       <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" t="s">
-        <v>20</v>
+      <c r="B45" s="2">
+        <v>45826.541666666657</v>
       </c>
       <c r="C45" s="2">
         <v>45826.541666666657</v>
@@ -1676,8 +1619,8 @@
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" t="s">
-        <v>19</v>
+      <c r="B46" s="2">
+        <v>45828.354166666657</v>
       </c>
       <c r="C46" s="2">
         <v>45828.354166666657</v>
@@ -1702,8 +1645,8 @@
       <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B47" t="s">
-        <v>18</v>
+      <c r="B47" s="2">
+        <v>45831.354166666657</v>
       </c>
       <c r="C47" s="2">
         <v>45831.354166666657</v>
@@ -1728,8 +1671,8 @@
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="B48" t="s">
-        <v>18</v>
+      <c r="B48" s="2">
+        <v>45831.375</v>
       </c>
       <c r="C48" s="2">
         <v>45831.375</v>
@@ -1754,8 +1697,8 @@
       <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B49" t="s">
-        <v>17</v>
+      <c r="B49" s="2">
+        <v>45838.354166666657</v>
       </c>
       <c r="C49" s="2">
         <v>45838.354166666657</v>

--- a/Trades_H1.xlsx
+++ b/Trades_H1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E34FE91-C280-40E4-B2CC-01A9883A9CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD62B70F-D9BF-4A89-B9E5-7B094667CD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,13 +436,14 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -589,7 +590,7 @@
         <v>561.05999999999995</v>
       </c>
       <c r="E6" s="2">
-        <v>45785.354166666657</v>
+        <v>45785.395833333336</v>
       </c>
       <c r="F6">
         <v>561.22</v>
@@ -615,7 +616,7 @@
         <v>560.13</v>
       </c>
       <c r="E7" s="2">
-        <v>45785.354166666657</v>
+        <v>45785.395833333336</v>
       </c>
       <c r="F7">
         <v>561.22</v>
@@ -641,7 +642,7 @@
         <v>561.46</v>
       </c>
       <c r="E8" s="2">
-        <v>45785.354166666657</v>
+        <v>45785.395833333336</v>
       </c>
       <c r="F8">
         <v>561.22</v>

--- a/Trades_H1.xlsx
+++ b/Trades_H1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD62B70F-D9BF-4A89-B9E5-7B094667CD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7028AD78-B7D6-4B8C-9B5C-D7DB882BF5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +590,7 @@
         <v>561.05999999999995</v>
       </c>
       <c r="E6" s="2">
-        <v>45785.395833333336</v>
+        <v>45785.354166666664</v>
       </c>
       <c r="F6">
         <v>561.22</v>
@@ -616,7 +616,7 @@
         <v>560.13</v>
       </c>
       <c r="E7" s="2">
-        <v>45785.395833333336</v>
+        <v>45785.354166666664</v>
       </c>
       <c r="F7">
         <v>561.22</v>
@@ -642,7 +642,7 @@
         <v>561.46</v>
       </c>
       <c r="E8" s="2">
-        <v>45785.395833333336</v>
+        <v>45785.354166666664</v>
       </c>
       <c r="F8">
         <v>561.22</v>
